--- a/src/main/java/goorm/brainsnack/quiz/init/data-init.xlsx
+++ b/src/main/java/goorm/brainsnack/quiz/init/data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/supportkim/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F16110-6A54-4F44-B7CA-2277D158267C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72252E81-BAEC-C64E-B334-AF1A42FD56EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{2BDDAAC6-6B40-6143-84A5-CCA650659888}"/>
   </bookViews>
@@ -77,139 +77,8 @@
     <t>다음 밑줄 친 단어의 의미와 가장 유사한 것은?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 봄이 오니 온 산과 들에 파릇파릇 새 생명이 넘쳐난다.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 건강이 좋아져야지.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">다른 방법으로 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>다시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 한 번 해 봐.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 보아도 틀린 곳을 못 찾겠어.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">웬만큼 쉬었으면 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다시</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 일을 시작합시다.</t>
-    </r>
-  </si>
-  <si>
     <t>X</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>부사 '다시'의 사전적 의미를 살펴보면, 1. 하던 것을 되풀이해서. 2. 방법이나 방향을 고쳐서 새로이. 3. 하다가 그친 것을 계속하여. 4. 다음에 또. 5. 이전 상태로 또 등이 있다. 제시문을 살펴보면 봄은 순환하므로, '이전 상태로 또'의 뜻으로 쓰인 것을 알 수 있다. 이와 유사하게 쓰인 문장은 1번이다. 건강했던 이전 상태로 돌아가는 것이기 때문이다. 2번은 '방법이나 방향을 고쳐서 새로이', 3번은 '하던 것을 되풀이해서', 4번은 '하다가 그친 것을 계속하여'에 해당된다.</t>
@@ -240,166 +109,6 @@
   </si>
   <si>
     <t>다음 중 밑줄 친 부분과 같은 의미로 쓰인 것을 고르시오.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">그는 팔로 여자의 허리를 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감았다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">상사의 비리에 눈을 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수 는 없다.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">남편은 땀으로 멱을 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감다시피</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 하고 있었다.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">붕대로 머리를 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 한 사내가 이쪽으로 걸어오고 있다.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">그는 테이프를 되돌려 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>감아</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 처음부터 다시 들었다.</t>
-    </r>
   </si>
   <si>
     <t>1번은 '눈꺼풀을 내려 눈동자를 덮다', 2번은 '머리나 몸을 물로 씻다', 3번'어떤 물체를 다른 물체에 말거나 빙 두르다', 4번 '시계태엽이나 테이프 따위를 작동하도록 돌리다'</t>
@@ -920,6 +629,682 @@
   </si>
   <si>
     <t>0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*다시*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 봄이 오니 온 산과 들에 파릇파릇 새 생명이 넘쳐난다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*다시*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 건강이 좋아져야지.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*다시*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 보아도 틀린 곳을 못 찾겠어.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웬만큼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쉬었으면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다시*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 일을 시작합시다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팔로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여자의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>허리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감았다*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상사의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비리에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>눈을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감을*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수 는 없다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>남편은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>땀으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멱을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감다시피*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 하고 있었다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>붕대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감은*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 한 사내가 이쪽으로 걸어오고 있다.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이프를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되돌려</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감아*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 처음부터 다시 들었다.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -928,7 +1313,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -982,13 +1367,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1000,6 +1378,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1024,14 +1410,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1052,13 +1435,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,9 +1462,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1119,7 +1502,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1225,7 +1608,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1367,7 +1750,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1377,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36F106E2-7275-EC42-B6E2-CA137E4EBEB8}">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1438,29 +1821,29 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="J2" s="8">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="10">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1471,31 +1854,31 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="J3" s="8">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="10">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1506,31 +1889,31 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="10">
+        <v>72</v>
+      </c>
+      <c r="J4" s="8">
         <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1541,31 +1924,31 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="10">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8">
         <v>2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="57">
@@ -1576,31 +1959,31 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="10">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="8">
         <v>3</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>48</v>
+      <c r="K6" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1611,31 +1994,31 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="10">
+        <v>72</v>
+      </c>
+      <c r="J7" s="8">
         <v>3</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>54</v>
+      <c r="K7" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1646,31 +2029,31 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="10">
+        <v>72</v>
+      </c>
+      <c r="J8" s="8">
         <v>5</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="19">
@@ -1681,31 +2064,31 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="10">
+        <v>57</v>
+      </c>
+      <c r="J9" s="8">
         <v>3</v>
       </c>
-      <c r="K9" s="4" t="s">
-        <v>68</v>
+      <c r="K9" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1716,31 +2099,31 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J10" s="10">
+        <v>53</v>
+      </c>
+      <c r="J10" s="8">
         <v>3</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>74</v>
+      <c r="K10" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1751,731 +2134,731 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="10">
+        <v>70</v>
+      </c>
+      <c r="J11" s="8">
         <v>4</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="38">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="10">
+        <v>79</v>
+      </c>
+      <c r="J12" s="8">
         <v>3</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>90</v>
+      <c r="K12" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="57">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="10">
+        <v>86</v>
+      </c>
+      <c r="J13" s="8">
         <v>2</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>97</v>
+      <c r="K13" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J14" s="10">
+        <v>93</v>
+      </c>
+      <c r="J14" s="8">
         <v>3</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J15" s="11">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" s="9">
         <v>4</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1">
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J16" s="10">
+        <v>102</v>
+      </c>
+      <c r="J16" s="8">
         <v>3</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J17" s="10">
+        <v>109</v>
+      </c>
+      <c r="J17" s="8">
         <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1">
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J18" s="10">
+        <v>116</v>
+      </c>
+      <c r="J18" s="8">
         <v>1</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B19" s="1">
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J19" s="10">
+        <v>122</v>
+      </c>
+      <c r="J19" s="8">
         <v>4</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B20" s="1">
         <v>9</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D20" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="6">
+        <v>72</v>
+      </c>
+      <c r="E20" s="5">
         <v>6</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>8</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>10</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>12</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>14</v>
       </c>
-      <c r="J20" s="10">
+      <c r="J20" s="8">
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1">
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="10">
+        <v>131</v>
+      </c>
+      <c r="J21" s="8">
         <v>4</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1">
         <v>11</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J22" s="10">
+        <v>136</v>
+      </c>
+      <c r="J22" s="8">
         <v>3</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B23" s="1">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J23" s="10">
+        <v>143</v>
+      </c>
+      <c r="J23" s="8">
         <v>2</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1">
         <v>13</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J24" s="10">
+        <v>150</v>
+      </c>
+      <c r="J24" s="8">
         <v>4</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J25" s="10">
+        <v>158</v>
+      </c>
+      <c r="J25" s="8">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J26" s="10">
+        <v>166</v>
+      </c>
+      <c r="J26" s="8">
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B27" s="1">
         <v>3</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J27" s="10">
+        <v>72</v>
+      </c>
+      <c r="J27" s="8">
         <v>3</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B28" s="1">
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="9">
+        <v>175</v>
+      </c>
+      <c r="E28" s="1">
         <v>3.375</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="1">
         <v>6.5</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="1">
         <v>10</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="1">
         <v>13</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="1">
         <v>15</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="8">
         <v>3</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E29" s="9">
+        <v>177</v>
+      </c>
+      <c r="E29" s="1">
         <v>4</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="1">
         <v>-5</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="1">
         <v>-6</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="1">
         <v>7</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="1">
         <v>-8</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <v>3</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B30" s="1">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E30" s="9">
+        <v>180</v>
+      </c>
+      <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="1">
         <v>-12</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="1">
         <v>-93</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="1">
         <v>-175</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="1">
         <v>-372</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="8">
         <v>5</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B31" s="1">
         <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E31" s="9">
+        <v>183</v>
+      </c>
+      <c r="E31" s="1">
         <v>165</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="1">
         <v>185</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="1">
         <v>205</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="1">
         <v>225</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="1">
         <v>245</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="8">
         <v>4</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
